--- a/Config/Excel/Datas/GameConfig/EntryConfig.xlsx
+++ b/Config/Excel/Datas/GameConfig/EntryConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>NumericType</t>
   </si>
   <si>
     <t>##group</t>
@@ -119,6 +122,21 @@
       </rPr>
       <t>属性值最大范围</t>
     </r>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>DEFAddition</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>CRI</t>
   </si>
 </sst>
 </file>
@@ -131,19 +149,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="JetBrains Mono"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -605,48 +617,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -656,101 +671,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,16 +770,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1255,47 +1258,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.66666666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" style="3" customWidth="1"/>
-    <col min="4" max="5" width="17.1111111111111" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.6666666666667" style="3" customWidth="1"/>
-    <col min="7" max="8" width="29.1111111111111" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="8" width="29.1111111111111" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1303,84 +1306,84 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1002</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:8">
-      <c r="A6" s="5"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1393,8 +1396,8 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>1016</v>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1404,401 +1407,257 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1017</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
         <v>2000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1011</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1019</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1">
         <v>2000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1002</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1016</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="3">
-        <v>1017</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>3000</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="F13" s="3">
-        <v>1011</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>1019</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>3000</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
-        <v>1002</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
         <v>3</v>
       </c>
-      <c r="F16" s="3">
-        <v>1016</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1">
         <v>4</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="F17" s="3">
-        <v>1017</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1">
         <v>4000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Datas/GameConfig/EntryConfig.xlsx
+++ b/Config/Excel/Datas/GameConfig/EntryConfig.xlsx
@@ -127,7 +127,7 @@
     <t>MaxHp</t>
   </si>
   <si>
-    <t>DEFAddition</t>
+    <t>DEFFinalAdd</t>
   </si>
   <si>
     <t>Dodge</t>
@@ -136,7 +136,7 @@
     <t>AD</t>
   </si>
   <si>
-    <t>CRI</t>
+    <t>Crit</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="7"/>
